--- a/Assets/Resources/CSV.data/ItemText.xlsx
+++ b/Assets/Resources/CSV.data/ItemText.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="116">
   <si>
     <t>ItemCode</t>
   </si>
@@ -33,9 +33,6 @@
     <t>ALIEN_TONGUE</t>
   </si>
   <si>
-    <t>&lt;color=#4CFF52&gt;+30%&lt;/color&gt; 획득 범위</t>
-  </si>
-  <si>
     <t>ALIEN_WORM</t>
   </si>
   <si>
@@ -51,12 +48,6 @@
     <t>BABY_GECKO</t>
   </si>
   <si>
-    <t>재료가 떨어졌을 때 재료를 즉시 끌어당길 확률 &lt;color=#4CFF52&gt;+20%&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#4CFF52&gt;+10&lt;/color&gt; 범위</t>
-  </si>
-  <si>
     <t>BAG</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>COFFEE</t>
   </si>
   <si>
-    <t>&lt;color=#4CFF52&gt;+10%&lt;/color&gt; 공격 속도</t>
-  </si>
-  <si>
     <t>&lt;color=red&gt;-2%&lt;/color&gt; 데미지</t>
   </si>
   <si>
@@ -177,9 +165,6 @@
     <t>GLASSES</t>
   </si>
   <si>
-    <t>&lt;color=#4CFF52&gt;+20&lt;/color&gt; 범위</t>
-  </si>
-  <si>
     <t>GOAT_SKULL</t>
   </si>
   <si>
@@ -237,9 +222,6 @@
     <t>LAND_MINES</t>
   </si>
   <si>
-    <t>12초마다 지뢰가 생성되어 해당 지역에 10+(100%&lt;sprite=3&gt;)의 피해를 줍니다.</t>
-  </si>
-  <si>
     <t>LEMONADE</t>
   </si>
   <si>
@@ -276,31 +258,19 @@
     <t>SCAR</t>
   </si>
   <si>
-    <t>&lt;color=#4CFF52&gt;+20%&lt;/color&gt; EXP 획득</t>
-  </si>
-  <si>
     <t>SHARP_BULLET</t>
   </si>
   <si>
     <t>투사체가 &lt;color=#4CFF52&gt;1&lt;/color&gt;명의 추가 대상을 관통합니다.</t>
   </si>
   <si>
-    <t>&lt;color=red&gt;-20%&lt;/color&gt; 관통 피해</t>
-  </si>
-  <si>
     <t>&lt;color=red&gt;-5%&lt;/color&gt; 데미지</t>
   </si>
   <si>
     <t>TURRET</t>
   </si>
   <si>
-    <t>0.73초마다 10+(80%&lt;sprite=3&gt;) 피해를 주는 총알을 발사하는 포탑을 생성합니다.</t>
-  </si>
-  <si>
     <t>UGLY_TOOTH</t>
-  </si>
-  <si>
-    <t>적을 공격하면 적의 속도가 &lt;color=red&gt;+10%&lt;/color&gt; 감소합니다. 최대:&lt;color=#4CFF52&gt;30%&lt;/color&gt;</t>
   </si>
   <si>
     <t>&lt;color=red&gt;-3%&lt;/color&gt; 속도</t>
@@ -367,6 +337,51 @@
   <si>
     <t>.</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TREE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 많은 나무가 생성됩니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#4CFF52&gt;+3%&lt;/color&gt; 획득 범위</t>
+  </si>
+  <si>
+    <t>재료가 떨어졌을 때 재료를 즉시 끌어당길 확률 &lt;color=#4CFF52&gt;+2%&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#4CFF52&gt;+1&lt;/color&gt; 범위</t>
+  </si>
+  <si>
+    <t>&lt;color=#4CFF52&gt;+1%&lt;/color&gt; 공격 속도</t>
+  </si>
+  <si>
+    <t>&lt;color=#4CFF52&gt;+2&lt;/color&gt; 범위</t>
+  </si>
+  <si>
+    <t>12초마다 지뢰가 생성되어 해당 지역에 1+(1%&lt;sprite=3&gt;)의 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>&lt;color=#4CFF52&gt;+2%&lt;/color&gt; EXP 획득</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;-2%&lt;/color&gt; 관통 피해</t>
+  </si>
+  <si>
+    <t>.73초마다 1+(8%&lt;sprite=3&gt;) 피해를 주는 총알을 발사하는 포탑을 생성합니다.</t>
+  </si>
+  <si>
+    <t>적을 공격하면 적의 속도가 &lt;color=red&gt;+1%&lt;/color&gt; 감소합니다. 최대:&lt;color=#4CFF52&gt;3%&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -1306,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1339,792 +1354,804 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1">
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B49" s="1">
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B57" s="1">
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="1">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1">
         <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" s="1">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1">
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B68" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B69" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" s="1">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B71" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="1">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>99</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/CSV.data/ItemText.xlsx
+++ b/Assets/Resources/CSV.data/ItemText.xlsx
@@ -245,12 +245,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#4CFF52&gt;+3%&lt;/color&gt; 획득 범위</t>
-  </si>
-  <si>
-    <t>재료가 떨어졌을 때 재료를 즉시 끌어당길 확률 &lt;color=#4CFF52&gt;+2%&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>&lt;color=#4CFF52&gt;+1&lt;/color&gt; 범위</t>
   </si>
   <si>
@@ -283,10 +277,6 @@
     <t>BABY_ELEPHANT</t>
   </si>
   <si>
-    <t>재료를 주울 때 &lt;color=#4CFF52&gt;25%&lt;/color&gt;확률로 (25%&lt;sprite=7&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>BAT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -523,6 +513,18 @@
   </si>
   <si>
     <t>&lt;color=#4CFF52&gt;+2&lt;/color&gt; 원소 대미지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#4CFF52&gt;+30%&lt;/color&gt; 획득 범위</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료가 떨어졌을 때 재료를 즉시 끌어당길 확률 &lt;color=#4CFF52&gt;+20%&lt;/color&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료를 주울 때 &lt;color=#4CFF52&gt;25%&lt;/color&gt;확률로 무작위 적에게 (25%&lt;sprite=7&gt;)대미지를 줍니다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1618,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1649,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1665,10 +1667,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>5</v>
@@ -1676,10 +1678,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>6</v>
@@ -1687,13 +1689,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1704,18 +1706,18 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1731,10 +1733,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>11</v>
@@ -1742,24 +1744,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="7">
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1770,15 +1772,15 @@
         <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>13</v>
@@ -1786,24 +1788,24 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" s="7">
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1841,10 +1843,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>20</v>
@@ -1852,24 +1854,24 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B21" s="7">
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1885,46 +1887,46 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1935,15 +1937,15 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>23</v>
@@ -1951,10 +1953,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>24</v>
@@ -1968,18 +1970,18 @@
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2006,13 +2008,13 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2023,15 +2025,15 @@
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>32</v>
@@ -2039,10 +2041,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>31</v>
@@ -2061,10 +2063,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -2072,10 +2074,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>35</v>
@@ -2089,29 +2091,29 @@
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B43" s="7">
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2122,15 +2124,15 @@
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>38</v>
@@ -2138,10 +2140,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>32</v>
@@ -2155,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2166,15 +2168,15 @@
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>41</v>
@@ -2193,10 +2195,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>44</v>
@@ -2204,10 +2206,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>45</v>
@@ -2221,15 +2223,15 @@
         <v>2</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>47</v>
@@ -2243,26 +2245,26 @@
         <v>3</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>20</v>
@@ -2281,10 +2283,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>49</v>
@@ -2298,15 +2300,15 @@
         <v>2</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>35</v>
@@ -2325,13 +2327,13 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2342,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2364,15 +2366,15 @@
         <v>2</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>57</v>
@@ -2380,134 +2382,134 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B69" s="7">
         <v>2</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B72" s="7">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B74" s="7">
         <v>3</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B77" s="7">
         <v>4</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2523,10 +2525,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>60</v>
@@ -2534,10 +2536,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>61</v>
@@ -2551,15 +2553,15 @@
         <v>2</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>63</v>
@@ -2567,24 +2569,24 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B86" s="7">
         <v>2</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2595,15 +2597,15 @@
         <v>2</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>47</v>
@@ -2611,13 +2613,13 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2628,95 +2630,95 @@
         <v>3</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B94" s="7">
         <v>2</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B96" s="7">
         <v>2</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B98" s="7">
         <v>2</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2727,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -2738,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2749,15 +2751,15 @@
         <v>2</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>68</v>
@@ -2771,15 +2773,15 @@
         <v>2</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>70</v>
@@ -2798,18 +2800,18 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C125" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/CSV.data/ItemText.xlsx
+++ b/Assets/Resources/CSV.data/ItemText.xlsx
@@ -266,14 +266,6 @@
     <t>1 HP로 다음 웨이브를 시작합니다</t>
   </si>
   <si>
-    <t>0.73초마다 1+(8%&lt;sprite=4&gt;) 피해를 주는 총알을 발사하는 포탑을 생성합니다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>12초마다 지뢰가 생성되어 해당 지역에 1+(1%&lt;sprite=4&gt;)의 피해를 줍니다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>BABY_ELEPHANT</t>
   </si>
   <si>
@@ -429,10 +421,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>적을 공격하면 적의 속도가 &lt;color=red&gt;+10%&lt;/color&gt; 감소합니다 최대:&lt;color=#4CFF52&gt;30%&lt;/color&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>PROPELLER_HAT</t>
   </si>
   <si>
@@ -525,6 +513,18 @@
   </si>
   <si>
     <t>재료를 주울 때 &lt;color=#4CFF52&gt;25%&lt;/color&gt;확률로 무작위 적에게 (25%&lt;sprite=7&gt;)대미지를 줍니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>12초마다 지뢰가 생성되어 해당 지역에 10+(100%&lt;sprite=4&gt;)의 피해를 줍니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.73초마다 10+(80%&lt;sprite=4&gt;) 피해를 주는 총알을 발사하는 포탑을 생성합니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격하면 적의 속도가 &lt;color=red&gt;10%&lt;/color&gt; 감소합니다 최대:&lt;color=#4CFF52&gt;30%&lt;/color&gt;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1620,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1667,10 +1667,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>5</v>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>6</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1706,15 +1706,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>74</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>11</v>
@@ -1744,24 +1744,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="7">
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1772,15 +1772,15 @@
         <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>13</v>
@@ -1788,24 +1788,24 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="7">
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1843,10 +1843,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>20</v>
@@ -1854,24 +1854,24 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" s="7">
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1887,46 +1887,46 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1937,15 +1937,15 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>23</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>24</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2008,13 +2008,13 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2025,15 +2025,15 @@
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>32</v>
@@ -2041,10 +2041,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>31</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -2074,10 +2074,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>35</v>
@@ -2091,29 +2091,29 @@
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B43" s="7">
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2124,15 +2124,15 @@
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>38</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>32</v>
@@ -2168,15 +2168,15 @@
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>41</v>
@@ -2195,10 +2195,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>44</v>
@@ -2206,10 +2206,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>45</v>
@@ -2223,15 +2223,15 @@
         <v>2</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>47</v>
@@ -2245,26 +2245,26 @@
         <v>3</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>20</v>
@@ -2283,10 +2283,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>49</v>
@@ -2300,15 +2300,15 @@
         <v>2</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>35</v>
@@ -2327,13 +2327,13 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2366,15 +2366,15 @@
         <v>2</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>57</v>
@@ -2382,134 +2382,134 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B69" s="7">
         <v>2</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B72" s="7">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B74" s="7">
         <v>3</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B77" s="7">
         <v>4</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2525,10 +2525,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>60</v>
@@ -2536,10 +2536,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>61</v>
@@ -2553,15 +2553,15 @@
         <v>2</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>63</v>
@@ -2569,24 +2569,24 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B86" s="7">
         <v>2</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2602,10 +2602,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>47</v>
@@ -2613,13 +2613,13 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2630,15 +2630,15 @@
         <v>3</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>78</v>
@@ -2646,79 +2646,79 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B94" s="7">
         <v>2</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B96" s="7">
         <v>2</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B98" s="7">
         <v>2</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2751,15 +2751,15 @@
         <v>2</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>68</v>
@@ -2773,15 +2773,15 @@
         <v>2</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>70</v>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>80</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C125" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/CSV.data/ItemText.xlsx
+++ b/Assets/Resources/CSV.data/ItemText.xlsx
@@ -248,15 +248,6 @@
     <t>&lt;color=#4CFF52&gt;+1&lt;/color&gt; 범위</t>
   </si>
   <si>
-    <t>&lt;color=#4CFF52&gt;+1%&lt;/color&gt; 공격 속도</t>
-  </si>
-  <si>
-    <t>&lt;color=#4CFF52&gt;+2&lt;/color&gt; 범위</t>
-  </si>
-  <si>
-    <t>&lt;color=#4CFF52&gt;+2%&lt;/color&gt; EXP 획득</t>
-  </si>
-  <si>
     <t>&lt;color=red&gt;-2%&lt;/color&gt; 관통 피해</t>
   </si>
   <si>
@@ -524,7 +515,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>적을 공격하면 적의 속도가 &lt;color=red&gt;10%&lt;/color&gt; 감소합니다 최대:&lt;color=#4CFF52&gt;30%&lt;/color&gt;</t>
+    <t>적을 공격하면 적의 속도가 &lt;color=red&gt;-10%&lt;/color&gt; 감소합니다 최대:&lt;color=#4CFF52&gt;30%&lt;/color&gt;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#4CFF52&gt;+20%&lt;/color&gt; EXP 획득</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#4CFF52&gt;+20&lt;/color&gt; 범위</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#4CFF52&gt;+10%&lt;/color&gt; 공격 속도</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1620,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
@@ -1651,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1667,10 +1670,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>5</v>
@@ -1678,10 +1681,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>6</v>
@@ -1689,13 +1692,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1706,15 +1709,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>74</v>
@@ -1733,10 +1736,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>11</v>
@@ -1744,24 +1747,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B11" s="7">
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1772,15 +1775,15 @@
         <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>13</v>
@@ -1788,24 +1791,24 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" s="7">
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1843,10 +1846,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>20</v>
@@ -1854,24 +1857,24 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B21" s="7">
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1887,46 +1890,46 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1937,15 +1940,15 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>23</v>
@@ -1953,10 +1956,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>24</v>
@@ -1970,18 +1973,18 @@
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2008,13 +2011,13 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2025,15 +2028,15 @@
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>32</v>
@@ -2041,10 +2044,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>31</v>
@@ -2063,10 +2066,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -2074,10 +2077,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>35</v>
@@ -2091,29 +2094,29 @@
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B43" s="7">
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2124,15 +2127,15 @@
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>38</v>
@@ -2140,10 +2143,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>32</v>
@@ -2157,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2168,15 +2171,15 @@
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>41</v>
@@ -2195,10 +2198,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>44</v>
@@ -2206,10 +2209,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>45</v>
@@ -2223,15 +2226,15 @@
         <v>2</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>47</v>
@@ -2245,26 +2248,26 @@
         <v>3</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>20</v>
@@ -2283,10 +2286,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>49</v>
@@ -2300,15 +2303,15 @@
         <v>2</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>35</v>
@@ -2327,13 +2330,13 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2344,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2366,15 +2369,15 @@
         <v>2</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>57</v>
@@ -2382,134 +2385,134 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B69" s="7">
         <v>2</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B72" s="7">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B74" s="7">
         <v>3</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B77" s="7">
         <v>4</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2525,10 +2528,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>60</v>
@@ -2536,10 +2539,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>61</v>
@@ -2553,15 +2556,15 @@
         <v>2</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>63</v>
@@ -2569,24 +2572,24 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B86" s="7">
         <v>2</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2597,15 +2600,15 @@
         <v>2</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>47</v>
@@ -2613,13 +2616,13 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2630,95 +2633,95 @@
         <v>3</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B94" s="7">
         <v>2</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B96" s="7">
         <v>2</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B98" s="7">
         <v>2</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2729,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -2740,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2751,15 +2754,15 @@
         <v>2</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>68</v>
@@ -2773,15 +2776,15 @@
         <v>2</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>70</v>
@@ -2800,18 +2803,18 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C125" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/CSV.data/ItemText.xlsx
+++ b/Assets/Resources/CSV.data/ItemText.xlsx
@@ -245,9 +245,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#4CFF52&gt;+1&lt;/color&gt; 범위</t>
-  </si>
-  <si>
     <t>&lt;color=red&gt;-2%&lt;/color&gt; 관통 피해</t>
   </si>
   <si>
@@ -528,6 +525,10 @@
   </si>
   <si>
     <t>&lt;color=#4CFF52&gt;+10%&lt;/color&gt; 공격 속도</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#4CFF52&gt;+10&lt;/color&gt; 범위</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1623,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1654,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1670,10 +1671,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>5</v>
@@ -1681,10 +1682,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>6</v>
@@ -1692,13 +1693,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1709,18 +1710,18 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1736,10 +1737,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>11</v>
@@ -1747,24 +1748,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="7">
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1775,15 +1776,15 @@
         <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>13</v>
@@ -1791,24 +1792,24 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1846,10 +1847,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>20</v>
@@ -1857,24 +1858,24 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="7">
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1890,46 +1891,46 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1940,15 +1941,15 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>23</v>
@@ -1956,10 +1957,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>24</v>
@@ -1973,18 +1974,18 @@
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2011,13 +2012,13 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2028,15 +2029,15 @@
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>32</v>
@@ -2044,10 +2045,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>31</v>
@@ -2066,10 +2067,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -2077,10 +2078,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>35</v>
@@ -2094,29 +2095,29 @@
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" s="7">
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2127,15 +2128,15 @@
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>38</v>
@@ -2143,10 +2144,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>32</v>
@@ -2160,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2171,15 +2172,15 @@
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>41</v>
@@ -2198,10 +2199,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>44</v>
@@ -2209,10 +2210,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>45</v>
@@ -2226,15 +2227,15 @@
         <v>2</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>47</v>
@@ -2248,26 +2249,26 @@
         <v>3</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>20</v>
@@ -2286,10 +2287,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>49</v>
@@ -2303,15 +2304,15 @@
         <v>2</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>35</v>
@@ -2330,13 +2331,13 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2347,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2369,15 +2370,15 @@
         <v>2</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>57</v>
@@ -2385,134 +2386,134 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" s="7">
         <v>2</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B72" s="7">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74" s="7">
         <v>3</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B77" s="7">
         <v>4</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2528,10 +2529,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>60</v>
@@ -2539,10 +2540,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>61</v>
@@ -2556,15 +2557,15 @@
         <v>2</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>63</v>
@@ -2572,24 +2573,24 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B86" s="7">
         <v>2</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2600,15 +2601,15 @@
         <v>2</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>47</v>
@@ -2616,13 +2617,13 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2633,95 +2634,95 @@
         <v>3</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B94" s="7">
         <v>2</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B96" s="7">
         <v>2</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B98" s="7">
         <v>2</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2732,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -2743,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2754,15 +2755,15 @@
         <v>2</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>68</v>
@@ -2776,15 +2777,15 @@
         <v>2</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>70</v>
@@ -2803,18 +2804,18 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C125" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/CSV.data/ItemText.xlsx
+++ b/Assets/Resources/CSV.data/ItemText.xlsx
@@ -245,9 +245,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=red&gt;-2%&lt;/color&gt; 관통 피해</t>
-  </si>
-  <si>
     <t>더 많은 나무가 생성됩니다</t>
   </si>
   <si>
@@ -529,6 +526,10 @@
   </si>
   <si>
     <t>&lt;color=#4CFF52&gt;+10&lt;/color&gt; 범위</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;-20%&lt;/color&gt; 관통 피해</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1625,7 +1626,7 @@
   <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1655,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1671,10 +1672,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>5</v>
@@ -1682,10 +1683,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>6</v>
@@ -1693,13 +1694,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1710,18 +1711,18 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1737,10 +1738,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>11</v>
@@ -1748,24 +1749,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="7">
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1776,15 +1777,15 @@
         <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>13</v>
@@ -1792,24 +1793,24 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1847,10 +1848,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>20</v>
@@ -1858,24 +1859,24 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="7">
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1891,46 +1892,46 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1941,15 +1942,15 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>23</v>
@@ -1957,10 +1958,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>24</v>
@@ -1974,18 +1975,18 @@
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2012,13 +2013,13 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2029,15 +2030,15 @@
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>32</v>
@@ -2045,10 +2046,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>31</v>
@@ -2067,10 +2068,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>15</v>
@@ -2078,10 +2079,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>35</v>
@@ -2095,29 +2096,29 @@
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="7">
         <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2128,15 +2129,15 @@
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>38</v>
@@ -2144,10 +2145,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>32</v>
@@ -2161,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2172,15 +2173,15 @@
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>41</v>
@@ -2199,10 +2200,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>44</v>
@@ -2210,10 +2211,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>45</v>
@@ -2227,15 +2228,15 @@
         <v>2</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>47</v>
@@ -2249,26 +2250,26 @@
         <v>3</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>20</v>
@@ -2287,10 +2288,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>49</v>
@@ -2304,15 +2305,15 @@
         <v>2</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>35</v>
@@ -2331,13 +2332,13 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2348,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2370,15 +2371,15 @@
         <v>2</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>57</v>
@@ -2386,134 +2387,134 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B69" s="7">
         <v>2</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="4">
         <v>1</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72" s="7">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B74" s="7">
         <v>3</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B77" s="7">
         <v>4</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2529,10 +2530,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>60</v>
@@ -2540,10 +2541,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>61</v>
@@ -2557,15 +2558,15 @@
         <v>2</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>63</v>
@@ -2573,24 +2574,24 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B86" s="7">
         <v>2</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2601,15 +2602,15 @@
         <v>2</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>47</v>
@@ -2617,13 +2618,13 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2634,95 +2635,95 @@
         <v>3</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B94" s="7">
         <v>2</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B96" s="7">
         <v>2</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B98" s="7">
         <v>2</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2733,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -2744,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2755,15 +2756,15 @@
         <v>2</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>68</v>
@@ -2777,15 +2778,15 @@
         <v>2</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" s="14" t="s">
         <v>70</v>
@@ -2804,18 +2805,18 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C125" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
